--- a/output/pretty_results.xlsx
+++ b/output/pretty_results.xlsx
@@ -537,11 +537,7 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
@@ -572,46 +568,46 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M/E</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -627,24 +623,24 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>M/N</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr"/>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>M/N</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -657,78 +653,82 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>M/E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>M/N</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="V3" t="inlineStr">
         <is>
           <t>E</t>
@@ -763,32 +763,20 @@
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="AF3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
@@ -797,20 +785,20 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>M/N</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>E</t>
@@ -829,34 +817,42 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr"/>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
           <t>E</t>
@@ -864,26 +860,26 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>M/E</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -891,57 +887,53 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>M/N</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>M/N</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>M/E</t>
-        </is>
-      </c>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -957,12 +949,12 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -976,22 +968,18 @@
         </is>
       </c>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr">
         <is>
@@ -1000,12 +988,12 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M/E</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M/N</t>
         </is>
       </c>
     </row>
@@ -1013,31 +1001,27 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1053,49 +1037,53 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M/N</t>
         </is>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>M/N</t>
+          <t>N</t>
         </is>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>E</t>
@@ -1112,15 +1100,19 @@
         </is>
       </c>
       <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr"/>
@@ -1131,164 +1123,164 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>M/N</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr">
+        <is>
           <t>M/E</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>M/N</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
           <t>E</t>
@@ -1296,21 +1288,21 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="T8" t="inlineStr">
         <is>
           <t>M</t>
@@ -1340,23 +1332,23 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr"/>
+          <t>M/N</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>M/N</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr"/>
@@ -1368,30 +1360,34 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1402,33 +1398,33 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1445,26 +1441,30 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
           <t>M/E</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr">
         <is>
@@ -1481,121 +1481,117 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr"/>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>M/N</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr"/>
+          <t>M/E</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="AF10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1603,15 +1599,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>E</t>
@@ -1619,7 +1615,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1628,46 +1624,50 @@
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
           <t>E</t>
@@ -1675,18 +1675,18 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1697,12 +1697,12 @@
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -1717,24 +1717,28 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>M/E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
           <t>E</t>
@@ -1748,12 +1752,12 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>M/N</t>
+          <t>N</t>
         </is>
       </c>
       <c r="M12" t="inlineStr"/>
@@ -1770,7 +1774,7 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1779,59 +1783,51 @@
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>M/E</t>
+        </is>
+      </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1844,93 +1840,93 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>M/N</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr">
         <is>
-          <t>M/E</t>
+          <t>E</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr"/>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="AB13" t="inlineStr">
         <is>
           <t>E</t>
@@ -1938,16 +1934,20 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1955,25 +1955,21 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>M/N</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
           <t>M</t>
@@ -1981,7 +1977,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1991,30 +1987,38 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>M/N</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr">
         <is>
           <t>E</t>
@@ -2028,20 +2032,20 @@
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr">
         <is>
           <t>M</t>
@@ -2049,21 +2053,21 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr"/>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2071,89 +2075,97 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
           <t>M/N</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>M/N</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>E</t>
@@ -2161,7 +2173,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr"/>
@@ -2172,64 +2184,60 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr">
         <is>
           <t>E</t>
@@ -2243,7 +2251,7 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -2251,49 +2259,53 @@
           <t>M</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>M/N</t>
+        </is>
+      </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
-          <t>M/E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr"/>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr"/>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>M/N</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2301,17 +2313,17 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
@@ -2324,43 +2336,47 @@
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -2369,33 +2385,33 @@
         </is>
       </c>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>M/E</t>
-        </is>
-      </c>
+      <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr"/>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="AC17" t="inlineStr">
         <is>
           <t>E</t>
@@ -2403,15 +2419,15 @@
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2424,58 +2440,50 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>M/E</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>M/N</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="Q18" t="inlineStr">
         <is>
           <t>M</t>
@@ -2483,7 +2491,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2499,31 +2507,35 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>M/N</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
@@ -2537,31 +2549,23 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>M/N</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2575,51 +2579,55 @@
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>M/E</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr">
         <is>
           <t>M</t>
@@ -2627,10 +2635,14 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr">
         <is>
@@ -2639,15 +2651,15 @@
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="AE19" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AF19" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2655,15 +2667,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>E</t>
@@ -2671,36 +2683,44 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>M/N</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2711,12 +2731,12 @@
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>M/N</t>
+          <t>N</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
@@ -2731,28 +2751,20 @@
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>M/E</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>M/E</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr">
         <is>
           <t>E</t>
@@ -2760,10 +2772,14 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AF20" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>M/N</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2775,10 +2791,14 @@
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>M/E</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2788,41 +2808,45 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2831,22 +2855,18 @@
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr">
         <is>
           <t>M</t>
@@ -2854,31 +2874,27 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr">
         <is>
           <t>N</t>
@@ -2889,34 +2905,34 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>E</t>
@@ -2924,65 +2940,69 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr"/>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr">
         <is>
           <t>M</t>
@@ -2990,109 +3010,109 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AF22" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>M/E</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr">
         <is>
@@ -3101,7 +3121,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr"/>
@@ -3112,12 +3132,12 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -3125,21 +3145,25 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>M/E</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -3147,22 +3171,22 @@
           <t>E</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -3194,7 +3218,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -3213,31 +3237,27 @@
         </is>
       </c>
       <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>M/E</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AE24" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -3245,11 +3265,7 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>M</t>
@@ -3257,38 +3273,38 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>M/E</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>M/N</t>
+          <t>N</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
@@ -3297,104 +3313,116 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AD25" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AF25" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>M/N</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>M</t>
@@ -3402,25 +3430,21 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
           <t>E</t>
@@ -3433,7 +3457,11 @@
       </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="W26" t="inlineStr">
         <is>
           <t>E</t>
@@ -3441,37 +3469,33 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AE26" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AF26" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>M/E</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3479,36 +3503,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>M/N</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -3517,67 +3537,71 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr">
+          <t>E</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
         <is>
           <t>M/E</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>M/E</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>E</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
@@ -3589,7 +3613,7 @@
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -3597,25 +3621,21 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -3626,90 +3646,94 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AE28" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -3719,39 +3743,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -3762,12 +3782,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M/N</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -3784,103 +3804,91 @@
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AA29" t="inlineStr"/>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
         <is>
           <t>M/E</t>
         </is>
       </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="AF29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>M/E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -3889,19 +3897,27 @@
         </is>
       </c>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr">
         <is>
@@ -3910,50 +3926,50 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>M/N</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AE30" t="inlineStr"/>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>M/E</t>
         </is>
       </c>
     </row>
@@ -3961,41 +3977,45 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="M31" t="inlineStr">
         <is>
           <t>E</t>
@@ -4003,23 +4023,23 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -4039,33 +4059,33 @@
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AD31" t="inlineStr"/>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr">
         <is>
